--- a/Deliverables/User_stories.xlsx
+++ b/Deliverables/User_stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -775,13 +775,25 @@
       <name val="Georgia"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.39997558519241921"/>
       <name val="Georgia"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFF00"/>
+      <color theme="7" tint="0.39997558519241921"/>
       <name val="Georgia"/>
     </font>
   </fonts>
@@ -956,25 +968,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFAF76FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,8 +1365,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1426,9 +1440,282 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1438,14 +1725,8 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="75" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1453,418 +1734,85 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="31" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="78" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Georgia"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -1921,6 +1869,23 @@
           <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Georgia"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2039,28 +2004,28 @@
                   <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2117118872"/>
-        <c:axId val="2115109688"/>
+        <c:axId val="2139992440"/>
+        <c:axId val="2139997880"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2117118872"/>
+        <c:axId val="2139992440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2171,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115109688"/>
+        <c:crossAx val="2139997880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2214,7 +2179,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115109688"/>
+        <c:axId val="2139997880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117118872"/>
+        <c:crossAx val="2139992440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2662,7 +2627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2672,9 +2637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2686,13 +2651,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1">
       <c r="A2" s="19" t="s">
@@ -2712,325 +2677,325 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="113" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="116" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="120" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="124" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="124" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="124" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="127" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="130" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="130" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="129" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="130" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="131" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="135" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="128" t="s">
+      <c r="C14" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="120" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="124" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="124" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="134" t="s">
+      <c r="B17" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="124" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="130" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="130" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="130" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="141" t="s">
+      <c r="C21" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="142" t="s">
+      <c r="D21" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="144" t="s">
+      <c r="E21" s="139" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3111,7 +3076,7 @@
     </sortState>
   </autoFilter>
   <sortState ref="A3:E21">
-    <sortCondition sortBy="fontColor" ref="B3:B21" dxfId="3"/>
+    <sortCondition sortBy="fontColor" ref="B3:B21" dxfId="6"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3132,352 +3097,352 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="52.5" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="16" width="3.5" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="16" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="107" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="113" t="s">
+      <c r="H1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116" t="s">
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="116" t="s">
+      <c r="L1" s="96"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="117"/>
-      <c r="P1" s="119"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="98"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="35">
         <v>4</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="98"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="61">
         <v>4</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="83"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="61">
         <v>8</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="83"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="67">
         <v>16</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="83"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="64"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="67">
         <v>4</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="83"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="80">
+      <c r="B8" s="61">
         <v>2</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="83"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="61">
         <v>16</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="83"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="61">
         <v>8</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="83"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="71">
         <v>16</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="91"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="97"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1">
       <c r="A12" s="16"/>
@@ -3486,32 +3451,32 @@
       <c r="D12" s="8"/>
       <c r="E12" s="15"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P11">
@@ -3526,22 +3491,22 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="parked">
+    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="parked">
       <formula>NOT(ISERROR(SEARCH("parked", E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="to do">
+    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="to do">
       <formula>NOT(ISERROR(SEARCH("to do", E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" stopIfTrue="1" operator="containsText" text="in progress">
+    <cfRule type="containsText" dxfId="3" priority="3" stopIfTrue="1" operator="containsText" text="in progress">
       <formula>NOT(ISERROR(SEARCH("in progress", E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" stopIfTrue="1" operator="containsText" text="done">
+    <cfRule type="containsText" dxfId="2" priority="4" stopIfTrue="1" operator="containsText" text="done">
       <formula>NOT(ISERROR(SEARCH("done", E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" stopIfTrue="1" operator="containsText" text="blocked">
+    <cfRule type="containsText" dxfId="1" priority="5" stopIfTrue="1" operator="containsText" text="blocked">
       <formula>NOT(ISERROR(SEARCH("blocked", E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" stopIfTrue="1" operator="containsText" text="dropped">
+    <cfRule type="containsText" dxfId="0" priority="6" stopIfTrue="1" operator="containsText" text="dropped">
       <formula>NOT(ISERROR(SEARCH("dropped", E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3579,7 +3544,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3588,38 +3553,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10" ht="13">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125" t="s">
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="125" t="s">
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="127"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="13">
       <c r="A3" s="14" t="s">
@@ -3699,28 +3664,28 @@
         <v>50</v>
       </c>
       <c r="C5" s="18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="18">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E5" s="18">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F5" s="18">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="18">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="H5" s="18">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I5" s="18">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J5" s="18">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
@@ -3922,6 +3887,7 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Deliverables/User_stories.xlsx
+++ b/Deliverables/User_stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -380,11 +380,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
     </font>
@@ -399,23 +394,8 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF38761D"/>
       <name val="Georgia"/>
     </font>
     <font>
@@ -440,11 +420,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -456,16 +431,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
@@ -493,11 +458,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
@@ -591,11 +551,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
@@ -623,11 +578,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
@@ -644,12 +594,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
@@ -657,11 +601,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Georgia"/>
     </font>
     <font>
@@ -681,11 +620,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
@@ -703,17 +637,7 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Georgia"/>
     </font>
@@ -734,29 +658,6 @@
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -768,11 +669,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Georgia"/>
     </font>
     <font>
       <u/>
@@ -787,13 +683,39 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="7" tint="0.39997558519241921"/>
       <name val="Georgia"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="7" tint="0.39997558519241921"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF38761D"/>
       <name val="Georgia"/>
     </font>
   </fonts>
@@ -1367,443 +1289,401 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2138,11 +2018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139992440"/>
-        <c:axId val="2139997880"/>
+        <c:axId val="2129060728"/>
+        <c:axId val="2129067496"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2139992440"/>
+        <c:axId val="2129060728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2051,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139997880"/>
+        <c:crossAx val="2129067496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +2059,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139997880"/>
+        <c:axId val="2129067496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139992440"/>
+        <c:crossAx val="2129060728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2627,7 +2507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2637,9 +2517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2651,423 +2531,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="87" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="116" t="s">
+      <c r="E4" s="91" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="119" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="120" t="s">
+      <c r="E5" s="95" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="99" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="99" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="123" t="s">
+      <c r="C8" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="123" t="s">
+      <c r="D8" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="99" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="126" t="s">
+      <c r="C9" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="101" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="104" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="129" t="s">
+      <c r="D11" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="104" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B12" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E12" s="104" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="134" t="s">
+      <c r="D13" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="108" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="119" t="s">
+      <c r="D14" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="95" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="99" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="123" t="s">
+      <c r="C16" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="124" t="s">
+      <c r="E16" s="99" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="143" t="s">
+      <c r="B17" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="123" t="s">
+      <c r="C17" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="124" t="s">
+      <c r="E17" s="99" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="104" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="130" t="s">
+      <c r="E19" s="104" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A20" s="128" t="s">
+      <c r="A20" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="129" t="s">
+      <c r="C20" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="104" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="137" t="s">
+      <c r="C21" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="114" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E21">
@@ -3099,7 +2979,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3115,368 +2995,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="108" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="95" t="s">
+      <c r="L1" s="73"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="96"/>
-      <c r="P1" s="98"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="107" t="s">
+      <c r="G2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="P2" s="49" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="116">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="59"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="116">
         <v>4</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="64"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="116">
         <v>8</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="64"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="116">
         <v>16</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="64"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="116">
         <v>4</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="64"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="116">
         <v>2</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="64"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="116">
         <v>16</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="64"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="116">
         <v>8</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="64"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="122">
         <v>16</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="78"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="42"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P11">
@@ -3542,9 +3422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3553,331 +3433,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="104" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="106"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" ht="13">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11">
+      <c r="A4" s="126"/>
+      <c r="B4" s="127">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="127">
         <f t="shared" ref="C4:J4" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="127">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="127">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="127">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="127">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="127">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="127">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="127">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="129">
         <v>50</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="129">
         <v>50</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="129">
         <v>50</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="129">
         <v>50</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="129">
         <v>50</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="129">
         <v>50</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="129">
         <v>50</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="129">
         <v>50</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="129">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="130">
         <v>50</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="130">
         <v>44</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="130">
         <v>38</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="130">
         <v>31</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="130">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="130">
         <v>19</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="130">
         <v>13</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="130">
         <v>6</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="130">
         <f>SUM('Sprint 1 Backlog'!$B$3:$B$13)-(((J4-1)*SUM('Sprint 1 Backlog'!$B$3:$B$13))/($J$4-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="9" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="26.25" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" ht="12">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" ht="12">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" ht="12">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" ht="12">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" ht="12">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" ht="12">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="2:7" ht="12">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" ht="12">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" ht="12">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Deliverables/User_stories.xlsx
+++ b/Deliverables/User_stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23117"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -689,17 +689,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Georgia"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="7" tint="0.39997558519241921"/>
       <name val="Georgia"/>
     </font>
     <font>
@@ -716,6 +706,16 @@
     <font>
       <sz val="14"/>
       <color rgb="FF38761D"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC20600"/>
       <name val="Georgia"/>
     </font>
   </fonts>
@@ -1548,9 +1548,6 @@
     <xf numFmtId="0" fontId="58" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1560,9 +1557,6 @@
     <xf numFmtId="0" fontId="58" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1572,9 +1566,6 @@
     <xf numFmtId="0" fontId="58" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1584,9 +1575,6 @@
     <xf numFmtId="0" fontId="58" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1599,39 +1587,27 @@
     <xf numFmtId="0" fontId="58" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1671,19 +1647,43 @@
     <xf numFmtId="0" fontId="58" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="64" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="32" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2517,9 +2517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2560,322 +2560,322 @@
       <c r="A3" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="86" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="89" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="92" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="95" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="95" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="97" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="100" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="100" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="100" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="103" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="92" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="95" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="98" t="s">
+      <c r="D16" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="95" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="98" t="s">
+      <c r="D17" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="95" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="100" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="103" t="s">
+      <c r="D19" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="100" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="100" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="113" t="s">
+      <c r="D21" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="114" t="s">
+      <c r="E21" s="106" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3073,22 +3073,22 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="108">
         <v>4</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="D3" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="118"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="59"/>
       <c r="H3" s="28"/>
       <c r="I3" s="18"/>
@@ -3101,22 +3101,22 @@
       <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="116">
+      <c r="B4" s="108">
         <v>4</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="118"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="60"/>
       <c r="H4" s="29"/>
       <c r="I4" s="23"/>
@@ -3129,22 +3129,22 @@
       <c r="P4" s="51"/>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="116">
+      <c r="B5" s="108">
         <v>8</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="117"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="60"/>
       <c r="H5" s="29"/>
       <c r="I5" s="23"/>
@@ -3157,22 +3157,22 @@
       <c r="P5" s="51"/>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="116">
+      <c r="B6" s="108">
         <v>16</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="116" t="s">
+      <c r="D6" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="117"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="60"/>
       <c r="H6" s="29"/>
       <c r="I6" s="23"/>
@@ -3185,22 +3185,22 @@
       <c r="P6" s="51"/>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="116">
+      <c r="B7" s="108">
         <v>4</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="117" t="s">
+      <c r="E7" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="117"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="60"/>
       <c r="H7" s="29"/>
       <c r="I7" s="23"/>
@@ -3213,22 +3213,22 @@
       <c r="P7" s="51"/>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="116">
+      <c r="B8" s="108">
         <v>2</v>
       </c>
-      <c r="C8" s="116" t="s">
+      <c r="C8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="60"/>
       <c r="H8" s="29"/>
       <c r="I8" s="23"/>
@@ -3241,22 +3241,22 @@
       <c r="P8" s="51"/>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="108">
         <v>16</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="118"/>
+      <c r="F9" s="110"/>
       <c r="G9" s="60"/>
       <c r="H9" s="29"/>
       <c r="I9" s="23"/>
@@ -3269,22 +3269,22 @@
       <c r="P9" s="51"/>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="116">
+      <c r="B10" s="108">
         <v>8</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="116" t="s">
+      <c r="D10" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="118"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="60"/>
       <c r="H10" s="29"/>
       <c r="I10" s="23"/>
@@ -3297,22 +3297,22 @@
       <c r="P10" s="51"/>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="122">
+      <c r="B11" s="114">
         <v>16</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="125"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="61"/>
       <c r="H11" s="58"/>
       <c r="I11" s="52"/>
@@ -3422,7 +3422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:J6"/>
     </sheetView>
@@ -3499,104 +3499,104 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
-      <c r="A4" s="126"/>
-      <c r="B4" s="127">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119">
         <v>1</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="119">
         <f t="shared" ref="C4:J4" si="0">B4+1</f>
         <v>2</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="119">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E4" s="127">
+      <c r="E4" s="119">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="127">
+      <c r="F4" s="119">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G4" s="127">
+      <c r="G4" s="119">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H4" s="127">
+      <c r="H4" s="119">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I4" s="127">
+      <c r="I4" s="119">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J4" s="127">
+      <c r="J4" s="119">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="129">
+      <c r="B5" s="121">
         <v>50</v>
       </c>
-      <c r="C5" s="129">
+      <c r="C5" s="121">
         <v>50</v>
       </c>
-      <c r="D5" s="129">
+      <c r="D5" s="121">
         <v>50</v>
       </c>
-      <c r="E5" s="129">
+      <c r="E5" s="121">
         <v>50</v>
       </c>
-      <c r="F5" s="129">
+      <c r="F5" s="121">
         <v>50</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="121">
         <v>50</v>
       </c>
-      <c r="H5" s="129">
+      <c r="H5" s="121">
         <v>50</v>
       </c>
-      <c r="I5" s="129">
+      <c r="I5" s="121">
         <v>50</v>
       </c>
-      <c r="J5" s="129">
+      <c r="J5" s="121">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="130">
+      <c r="B6" s="122">
         <v>50</v>
       </c>
-      <c r="C6" s="130">
+      <c r="C6" s="122">
         <v>44</v>
       </c>
-      <c r="D6" s="130">
+      <c r="D6" s="122">
         <v>38</v>
       </c>
-      <c r="E6" s="130">
+      <c r="E6" s="122">
         <v>31</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="122">
         <v>25</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="122">
         <v>19</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="122">
         <v>13</v>
       </c>
-      <c r="I6" s="130">
+      <c r="I6" s="122">
         <v>6</v>
       </c>
-      <c r="J6" s="130">
+      <c r="J6" s="122">
         <f>SUM('Sprint 1 Backlog'!$B$3:$B$13)-(((J4-1)*SUM('Sprint 1 Backlog'!$B$3:$B$13))/($J$4-1))</f>
         <v>0</v>
       </c>
